--- a/biology/Botanique/Rubus_gothicus/Rubus_gothicus.xlsx
+++ b/biology/Botanique/Rubus_gothicus/Rubus_gothicus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rubus gothicus est une espèce de plantes à fleurs de la famille des rosacées et du genre Rubus. Cette espèce est caractéristique du groupement végétal des pruno-rubion radulae[Quoi ?] en phytosociologie.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Rubus gothicus a des turions anguleux à faces planes, glabres, pourvus d'aiguillons de quatre à cinq millimètre de long. Le foliole terminal rétrécit graduellement pour finir en pointe de quinze à vingt millimètre de long. Le limbe comporte des dents de trois à quatre millimètres. Sa partie supérieure comporte un à vingt poils par cm². Sa face inférieure, quant à elle, est verte à vert grisâtre et pubescente - mais les poils sont non, ou à peine perceptibles au toucher.
 Les fleurs sont blanches, rarement un peu rosées.
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette ronce, à distribution éparse à fréquente, vit sur un sol riche en nutriments, dans les fourrés et les lisières forestières.
 </t>
@@ -574,7 +590,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On le rencontre en Suède, Norvège, Danemark, Allemagne, Pologne, République Tchèque, et en Autriche
 </t>
